--- a/data/albumdata.xlsx
+++ b/data/albumdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammo\OneDrive\Desktop\digit494\bobdylan494\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7359894E-5A86-46F4-86DB-A5CF394E321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026891FF-0A42-45A5-B91A-827C7312818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEEBB7A0-F159-473C-BB2C-0727624CED14}"/>
   </bookViews>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76129176-828D-47B7-819F-0A41AB8CCC8C}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2799,8 +2799,8 @@
         <v>17399</v>
       </c>
       <c r="C68">
-        <f>VLOOKUP(A68,[1]Sheet1!$A$68:$C$76,2,FALSE)</f>
-        <v>17399</v>
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>11</v>
       </c>
       <c r="D68" s="1">
         <v>23823</v>
@@ -2818,8 +2818,8 @@
         <v>25519</v>
       </c>
       <c r="C69">
-        <f>VLOOKUP(A69,[1]Sheet1!$A$68:$C$76,2,FALSE)</f>
-        <v>25519</v>
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>11</v>
       </c>
       <c r="D69" s="1">
         <v>23597</v>
@@ -2837,8 +2837,8 @@
         <v>28249</v>
       </c>
       <c r="C70">
-        <f>VLOOKUP(A70,[1]Sheet1!$A$68:$C$76,2,FALSE)</f>
-        <v>28249</v>
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
         <v>23389</v>
@@ -2856,8 +2856,8 @@
         <v>17327</v>
       </c>
       <c r="C71">
-        <f>VLOOKUP(A71,[1]Sheet1!$A$68:$C$76,2,FALSE)</f>
-        <v>17327</v>
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>13</v>
       </c>
       <c r="D71" s="1">
         <v>23158</v>
@@ -2875,8 +2875,8 @@
         <v>26515</v>
       </c>
       <c r="C72">
-        <f>VLOOKUP(A72,[1]Sheet1!$A$68:$C$76,2,FALSE)</f>
-        <v>26515</v>
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>13</v>
       </c>
       <c r="D72" s="1">
         <v>22724</v>
@@ -2894,8 +2894,8 @@
         <v>1223423</v>
       </c>
       <c r="C73">
-        <f>VLOOKUP(A73,[1]Sheet1!$A$68:$C$76,2,FALSE)</f>
-        <v>1223423</v>
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2907,8 +2907,8 @@
         <v>992332</v>
       </c>
       <c r="C74">
-        <f>VLOOKUP(A74,[1]Sheet1!$A$68:$C$76,2,FALSE)</f>
-        <v>992332</v>
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2920,8 +2920,8 @@
         <v>994766</v>
       </c>
       <c r="C75">
-        <f>VLOOKUP(A75,[1]Sheet1!$A$68:$C$76,2,FALSE)</f>
-        <v>994766</v>
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2933,8 +2933,8 @@
         <v>1108900</v>
       </c>
       <c r="C76">
-        <f>VLOOKUP(A76,[1]Sheet1!$A$68:$C$76,2,FALSE)</f>
-        <v>1108900</v>
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/albumdata.xlsx
+++ b/data/albumdata.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammo\OneDrive\Desktop\digit494\bobdylan494\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026891FF-0A42-45A5-B91A-827C7312818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25884243-20E9-47C1-B7A2-72AE3FF440F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEEBB7A0-F159-473C-BB2C-0727624CED14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FEEBB7A0-F159-473C-BB2C-0727624CED14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="live-comp albums" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>AlbumName</t>
   </si>
@@ -279,6 +281,27 @@
   </si>
   <si>
     <t>TrackCount</t>
+  </si>
+  <si>
+    <t>Late Dylan</t>
+  </si>
+  <si>
+    <t>Early Dylan</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Release Year</t>
+  </si>
+  <si>
+    <t>Total #of Albums</t>
+  </si>
+  <si>
+    <t>AlbumType</t>
+  </si>
+  <si>
+    <t>Live</t>
   </si>
 </sst>
 </file>
@@ -333,6 +356,866 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'live-comp albums'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total #of Albums</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'live-comp albums'!$I$5:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Early Dylan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Late Dylan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'live-comp albums'!$J$5:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-343A-4199-8100-1BF19B12A264}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1231727471"/>
+        <c:axId val="1231723151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1231727471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231723151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1231723151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231727471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0009ADDB-A884-BE70-DD3F-E442E0D2CCF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1505,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76129176-828D-47B7-819F-0A41AB8CCC8C}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,7 +2402,7 @@
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1535,8 +2418,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1554,8 +2440,12 @@
       <c r="E2">
         <v>2023</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="str">
+        <f>IF(E2&lt;1980,"Early Dylan","Late Dylan")</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1573,8 +2463,12 @@
       <c r="E3">
         <v>2023</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">IF(E3&lt;1980,"Early Dylan","Late Dylan")</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1592,8 +2486,12 @@
       <c r="E4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1611,8 +2509,12 @@
       <c r="E5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1630,8 +2532,12 @@
       <c r="E6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1649,8 +2555,12 @@
       <c r="E7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1668,8 +2578,12 @@
       <c r="E8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1687,8 +2601,12 @@
       <c r="E9">
         <v>2019</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1706,8 +2624,12 @@
       <c r="E10">
         <v>2019</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1725,8 +2647,12 @@
       <c r="E11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1744,8 +2670,12 @@
       <c r="E12">
         <v>2017</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1763,8 +2693,12 @@
       <c r="E13">
         <v>2017</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1782,8 +2716,12 @@
       <c r="E14">
         <v>2016</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1801,8 +2739,12 @@
       <c r="E15">
         <v>2015</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1820,8 +2762,12 @@
       <c r="E16">
         <v>2015</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1839,8 +2785,12 @@
       <c r="E17">
         <v>2013</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1858,8 +2808,12 @@
       <c r="E18">
         <v>2012</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1877,8 +2831,12 @@
       <c r="E19">
         <v>2011</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1896,8 +2854,12 @@
       <c r="E20">
         <v>2010</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1915,8 +2877,12 @@
       <c r="E21">
         <v>2009</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1934,8 +2900,12 @@
       <c r="E22">
         <v>2009</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1953,8 +2923,12 @@
       <c r="E23">
         <v>2008</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1972,8 +2946,12 @@
       <c r="E24">
         <v>2006</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1991,8 +2969,12 @@
       <c r="E25">
         <v>2005</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2010,8 +2992,12 @@
       <c r="E26">
         <v>2005</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2029,8 +3015,12 @@
       <c r="E27">
         <v>2005</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2048,8 +3038,12 @@
       <c r="E28">
         <v>2004</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2067,8 +3061,12 @@
       <c r="E29">
         <v>2002</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2086,8 +3084,12 @@
       <c r="E30">
         <v>2002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2105,8 +3107,12 @@
       <c r="E31">
         <v>2001</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2124,8 +3130,12 @@
       <c r="E32">
         <v>1998</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2143,8 +3153,12 @@
       <c r="E33">
         <v>1997</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2162,8 +3176,12 @@
       <c r="E34">
         <v>1995</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2181,8 +3199,12 @@
       <c r="E35">
         <v>1994</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2200,8 +3222,12 @@
       <c r="E36">
         <v>1994</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2219,8 +3245,12 @@
       <c r="E37">
         <v>1993</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2238,8 +3268,12 @@
       <c r="E38">
         <v>1992</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2257,8 +3291,12 @@
       <c r="E39">
         <v>1991</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2276,8 +3314,12 @@
       <c r="E40">
         <v>1990</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2295,8 +3337,12 @@
       <c r="E41">
         <v>1989</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2314,8 +3360,12 @@
       <c r="E42">
         <v>1988</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2333,8 +3383,12 @@
       <c r="E43">
         <v>1986</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2352,8 +3406,12 @@
       <c r="E44">
         <v>1985</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2371,8 +3429,12 @@
       <c r="E45">
         <v>1985</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2390,8 +3452,12 @@
       <c r="E46">
         <v>1984</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2409,8 +3475,12 @@
       <c r="E47">
         <v>1983</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2428,8 +3498,12 @@
       <c r="E48">
         <v>1981</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2447,8 +3521,12 @@
       <c r="E49">
         <v>1980</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2466,8 +3544,12 @@
       <c r="E50">
         <v>1979</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2485,8 +3567,12 @@
       <c r="E51">
         <v>1979</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2504,8 +3590,12 @@
       <c r="E52">
         <v>1978</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2523,8 +3613,12 @@
       <c r="E53">
         <v>1978</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2542,8 +3636,12 @@
       <c r="E54">
         <v>1976</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2561,8 +3659,12 @@
       <c r="E55">
         <v>1976</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2580,8 +3682,12 @@
       <c r="E56">
         <v>1975</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2599,8 +3705,12 @@
       <c r="E57">
         <v>1974</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2618,8 +3728,12 @@
       <c r="E58">
         <v>1973</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2637,8 +3751,12 @@
       <c r="E59">
         <v>1973</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2656,8 +3774,12 @@
       <c r="E60">
         <v>1971</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2675,8 +3797,12 @@
       <c r="E61">
         <v>1970</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2694,8 +3820,12 @@
       <c r="E62">
         <v>1970</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2713,8 +3843,12 @@
       <c r="E63">
         <v>1969</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2732,8 +3866,12 @@
       <c r="E64">
         <v>1967</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2751,8 +3889,12 @@
       <c r="E65">
         <v>1967</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2770,8 +3912,12 @@
       <c r="E66">
         <v>1966</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2789,8 +3935,12 @@
       <c r="E67">
         <v>1965</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F72" si="1">IF(E67&lt;1980,"Early Dylan","Late Dylan")</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2808,8 +3958,12 @@
       <c r="E68">
         <v>1965</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2827,8 +3981,12 @@
       <c r="E69">
         <v>1964</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2846,8 +4004,12 @@
       <c r="E70">
         <v>1964</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +4027,12 @@
       <c r="E71">
         <v>1963</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2884,8 +4050,12 @@
       <c r="E72">
         <v>1962</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2898,7 +4068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2911,7 +4081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2924,7 +4094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2940,4 +4110,1294 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4560C7-A3C3-4630-84F1-BFF97B1BE306}">
+  <dimension ref="C1:Q72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>2023</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(P2&lt;1980,"Early Dylan","Late Dylan")</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="P3">
+        <v>2023</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q66" si="0">IF(P3&lt;1980,"Early Dylan","Late Dylan")</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>2021</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>SUM(D3:D4)</f>
+        <v>71</v>
+      </c>
+      <c r="P5">
+        <v>2021</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>2021</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>2020</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>2020</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>2019</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>2019</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>2018</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>2017</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>2017</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>2016</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>2015</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>2015</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>2013</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="18" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>2012</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="19" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>2011</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="20" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>2010</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="21" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>2009</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="22" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>2009</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="23" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>2008</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="24" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>2006</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="25" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>2005</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="26" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>2005</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="27" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>2005</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="28" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>2004</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="29" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>2002</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="30" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>2002</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="31" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>2001</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="32" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>1998</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="33" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>1997</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="34" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>1995</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="35" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>1994</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="36" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>1994</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="37" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>1993</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="38" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>1992</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="39" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>1991</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="40" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>1990</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="41" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>1989</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="42" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>1988</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="43" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>1986</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="44" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>1985</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="45" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>1985</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="46" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>1984</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="47" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>1983</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="48" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>1981</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="49" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>1980</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="0"/>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="50" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>1979</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="51" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>1979</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="52" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>1978</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="53" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>1978</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="54" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>1976</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="55" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>1976</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="56" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>1975</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="57" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>1974</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="58" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>1973</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="59" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>1973</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="60" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>1971</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="61" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>1970</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="62" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>1970</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="63" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>1969</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="64" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>1967</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="65" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>1967</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="66" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>1966</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="67" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>1965</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:Q72" si="1">IF(P67&lt;1980,"Early Dylan","Late Dylan")</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="68" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>1965</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="69" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>1964</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="70" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>1964</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="71" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>1963</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="72" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>1962</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="1"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5F1180-7C84-4933-920D-C045A2DDB9BC}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2023</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2023</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2021</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2021</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C2:C44,"Early Dylan")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2021</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(C2:C45,"Late Dylan")</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2020</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J5:J6)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2019</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2019</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2018</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2017</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2017</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2016</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2015</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2015</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2013</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2011</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2010</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2009</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2008</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2005</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2005</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2005</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2002</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>2002</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1998</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1995</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1994</v>
+      </c>
+      <c r="C29" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1994</v>
+      </c>
+      <c r="C30" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1991</v>
+      </c>
+      <c r="C31" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1985</v>
+      </c>
+      <c r="C32" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1984</v>
+      </c>
+      <c r="C33" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Late Dylan</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1979</v>
+      </c>
+      <c r="C34" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1978</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1976</v>
+      </c>
+      <c r="C36" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1973</v>
+      </c>
+      <c r="C37" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1971</v>
+      </c>
+      <c r="C38" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1967</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <v>1964</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41">
+        <v>1966</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>1997</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43">
+        <v>1997</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44">
+        <v>1975</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/albumdata.xlsx
+++ b/data/albumdata.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammo\OneDrive\Desktop\digit494\bobdylan494\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25884243-20E9-47C1-B7A2-72AE3FF440F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DF9B0F-6311-4075-9899-71B423A7BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FEEBB7A0-F159-473C-BB2C-0727624CED14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEEBB7A0-F159-473C-BB2C-0727624CED14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="live-comp albums" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="live-comp albums" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="21" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
   <si>
     <t>AlbumName</t>
   </si>
@@ -302,6 +306,45 @@
   </si>
   <si>
     <t>Live</t>
+  </si>
+  <si>
+    <t>The Basement Tapes</t>
+  </si>
+  <si>
+    <t>Dylan &amp; The Dead</t>
+  </si>
+  <si>
+    <t>The 30th Anniversary Concert Celebration</t>
+  </si>
+  <si>
+    <t>The Essential Bob Dylan</t>
+  </si>
+  <si>
+    <t>31-10-2000</t>
+  </si>
+  <si>
+    <t>Side Tracks</t>
+  </si>
+  <si>
+    <t>Before the Flood</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>Comp.</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of AlbumType</t>
   </si>
 </sst>
 </file>
@@ -337,10 +380,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +502,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>34</c:v>
@@ -1182,15 +1230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2069,6 +2117,459 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Samantha Moniot" refreshedDate="45741.718650578703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="44" xr:uid="{8621E015-CC94-44FB-83CF-24FDCA222270}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D1048576" sheet="live-comp albums"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="AlbumName" numFmtId="0">
+      <sharedItems containsBlank="1" count="43">
+        <s v="The Complete Budokan 1978 (Live)"/>
+        <s v="Shadow Kingdom"/>
+        <s v="The Bootleg Series Vol. 16: Springtime in New York 1980 - 1985 (Standard Edition)"/>
+        <s v="The Bootleg Series Vol. 16: Springtime in New York 1980 - 1985 (Deluxe Edition)"/>
+        <s v="The Reggae Remix"/>
+        <s v="Best of the Bootleg Series"/>
+        <s v="The Bootleg Series Vol. 15: Travelin’ Thru, 1967–1969"/>
+        <s v="The Rolling Thunder Revue: The 1975 Live Recordings (Sampler)"/>
+        <s v="The Bootleg Series Vol. 14: More Blood, More Tracks (Streaming Sampler)"/>
+        <s v="The Bootleg Series Vol. 13: Trouble No More 1979–1981"/>
+        <s v="Triplicate (Sampler)"/>
+        <s v="Fallen Angels"/>
+        <s v="The Bootleg Series Vol. 12: The Cutting Edge"/>
+        <s v="Shadows in the Night"/>
+        <s v="The Bootleg Series Vol. 10: Another Self Portrait (1969–1971)"/>
+        <s v="Bob Dylan In Concert: Brandeis University 1963 "/>
+        <s v="The Bootleg Series, Vol. 9: The Witmark Demos: 1962-1964"/>
+        <s v="Christmas in the Heart"/>
+        <s v="The Bootleg Series Vol. 8: Tell Tale Signs: Rare and Unreleased 1989–2006"/>
+        <s v="Live At Carnegie Hall 1963"/>
+        <s v="Live at the Gaslight 1962"/>
+        <s v="The Bootleg Series Vol. 7: No Direction Home: The Soundtrack"/>
+        <s v="The Bootleg Series Vol. 6: Bob Dylan Live 1964, Concert at Philharmonic Hall"/>
+        <s v="The Bootleg Series Vol. 5: Bob Dylan Live 1975, The Rolling Thunder Revue"/>
+        <s v="The Rundown Rehearsal Tapes"/>
+        <s v="The Bootleg Series Vol. 4: Bob Dylan Live 1966, The “Royal Albert Hall” Concert"/>
+        <s v="MTV Unplugged"/>
+        <s v="Bob Dylan’s Greatest Hits Volume 3"/>
+        <s v="The Minnesota Tapes"/>
+        <s v="The Bootleg Series Volumes 1–3 (Rare &amp; Unreleased) 1961–1991"/>
+        <s v="Biograph"/>
+        <s v="Real Live"/>
+        <s v="Bob Dylan At Budokan (Live)"/>
+        <s v="Live In Brisbane 1978"/>
+        <s v="Hard Rain (Live)"/>
+        <s v="Dylan (1973)"/>
+        <s v="Bob Dylan’s Greatest Hits Vol. II "/>
+        <s v="Bob Dylan’s Greatest Hits"/>
+        <s v="The Joker, Vol. III: Early Years"/>
+        <s v="Fragments - Time Out of Mind Sessions (1996-1997): The Bootleg Series, Vol. 17 (Deluxe Edition)"/>
+        <s v="Fragments - Time Out of Mind Sessions (1996-1997): The Bootleg Series, Vol. 17"/>
+        <s v="Blood on the Tapes (Bootleg)"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Release Year" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1966" maxValue="2023"/>
+    </cacheField>
+    <cacheField name="Period" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Late Dylan"/>
+        <s v="Early Dylan"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="AlbumType" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="live"/>
+        <s v="comp"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="44">
+  <r>
+    <x v="0"/>
+    <n v="2023"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2023"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2021"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2021"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2021"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2020"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2019"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2019"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2018"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2017"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2016"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="2015"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="2015"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="2013"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="2011"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="2010"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="2009"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="2008"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="2005"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="2005"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="2005"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2004"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="2002"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="2002"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="1998"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="1995"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="1994"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="1994"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="1991"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="1985"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="1984"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="1979"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="1978"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="1976"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="1973"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="1971"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="1967"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="1966"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="1997"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="1997"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="1975"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9FAE770-6282-4CD1-BB9D-4676A45A238F}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0">
+      <items count="44">
+        <item x="5"/>
+        <item x="30"/>
+        <item x="41"/>
+        <item x="32"/>
+        <item x="15"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="35"/>
+        <item x="11"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="34"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="33"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="38"/>
+        <item x="28"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="24"/>
+        <item x="10"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of AlbumType" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2388,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76129176-828D-47B7-819F-0A41AB8CCC8C}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2464,7 +2965,7 @@
         <v>2023</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">IF(E3&lt;1980,"Early Dylan","Late Dylan")</f>
+        <f t="shared" ref="F3:F72" si="0">IF(E3&lt;1980,"Early Dylan","Late Dylan")</f>
         <v>Late Dylan</v>
       </c>
     </row>
@@ -2769,18 +3270,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <f>VLOOKUP(A17,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>646883</v>
-      </c>
-      <c r="C17">
-        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1">
-        <v>41513</v>
+        <v>41582</v>
       </c>
       <c r="E17">
         <v>2013</v>
@@ -2792,21 +3285,21 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <f>VLOOKUP(A18,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>19788</v>
+        <v>646883</v>
       </c>
       <c r="C18">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1">
-        <v>41162</v>
+        <v>41513</v>
       </c>
       <c r="E18">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -2815,21 +3308,21 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <f>VLOOKUP(A19,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41793</v>
+        <v>19788</v>
       </c>
       <c r="C19">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>40644</v>
+        <v>41162</v>
       </c>
       <c r="E19">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -2838,21 +3331,21 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <f>VLOOKUP(A20,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41763</v>
+        <v>41793</v>
       </c>
       <c r="C20">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
-        <v>40470</v>
+        <v>40644</v>
       </c>
       <c r="E20">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -2861,21 +3354,21 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <f>VLOOKUP(A21,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41757</v>
+        <v>41763</v>
       </c>
       <c r="C21">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1">
-        <v>40099</v>
+        <v>40470</v>
       </c>
       <c r="E21">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -2884,18 +3377,18 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <f>VLOOKUP(A22,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41758</v>
+        <v>41757</v>
       </c>
       <c r="C22">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
-        <v>39931</v>
+        <v>40099</v>
       </c>
       <c r="E22">
         <v>2009</v>
@@ -2907,21 +3400,21 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <f>VLOOKUP(A23,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41748</v>
+        <v>41758</v>
       </c>
       <c r="C23">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>39727</v>
+        <v>39931</v>
       </c>
       <c r="E23">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -2930,21 +3423,21 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <f>VLOOKUP(A24,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41719</v>
+        <v>41748</v>
       </c>
       <c r="C24">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1">
-        <v>38958</v>
+        <v>39727</v>
       </c>
       <c r="E24">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -2953,21 +3446,21 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <f>VLOOKUP(A25,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>1080915</v>
+        <v>41719</v>
       </c>
       <c r="C25">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>38671</v>
+        <v>38958</v>
       </c>
       <c r="E25">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -2976,18 +3469,18 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <f>VLOOKUP(A26,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>140466</v>
+        <v>1080915</v>
       </c>
       <c r="C26">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>38594</v>
+        <v>38671</v>
       </c>
       <c r="E26">
         <v>2005</v>
@@ -2999,15 +3492,15 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <f>VLOOKUP(A27,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41739</v>
+        <v>140466</v>
       </c>
       <c r="C27">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>38594</v>
@@ -3022,21 +3515,21 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <f>VLOOKUP(A28,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41728</v>
+        <v>41739</v>
       </c>
       <c r="C28">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1">
-        <v>38076</v>
+        <v>38594</v>
       </c>
       <c r="E28">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -3045,21 +3538,21 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <f>VLOOKUP(A29,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41722</v>
+        <v>41728</v>
       </c>
       <c r="C29">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1">
-        <v>37586</v>
+        <v>38076</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -3068,18 +3561,18 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <f>VLOOKUP(A30,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>1080815</v>
+        <v>41722</v>
       </c>
       <c r="C30">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>37377</v>
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>37586</v>
       </c>
       <c r="E30">
         <v>2002</v>
@@ -3091,21 +3584,21 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <f>VLOOKUP(A31,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>25956</v>
+        <v>1080815</v>
       </c>
       <c r="C31">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="D31" s="1">
-        <v>37145</v>
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>37377</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -3114,21 +3607,21 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <f>VLOOKUP(A32,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41657</v>
+        <v>25956</v>
       </c>
       <c r="C32">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
-        <v>36081</v>
+        <v>37145</v>
       </c>
       <c r="E32">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -3137,21 +3630,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <f>VLOOKUP(A33,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>18656</v>
-      </c>
-      <c r="C33">
-        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="D33" s="1">
-        <v>35703</v>
+        <v>90</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E33">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -3160,21 +3645,21 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <f>VLOOKUP(A34,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41643</v>
+        <v>41657</v>
       </c>
       <c r="C34">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1">
-        <v>34814</v>
+        <v>36081</v>
       </c>
       <c r="E34">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -3183,21 +3668,21 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <f>VLOOKUP(A35,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>817835</v>
+        <v>18656</v>
       </c>
       <c r="C35">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>34652</v>
+        <v>35703</v>
       </c>
       <c r="E35">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -3206,21 +3691,21 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <f>VLOOKUP(A36,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>1059206</v>
+        <v>41643</v>
       </c>
       <c r="C36">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="D36">
-        <v>1994</v>
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>34814</v>
       </c>
       <c r="E36">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -3229,21 +3714,21 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <f>VLOOKUP(A37,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41578</v>
+        <v>817835</v>
       </c>
       <c r="C37">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1">
-        <v>34268</v>
+        <v>34652</v>
       </c>
       <c r="E37">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -3252,21 +3737,21 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <f>VLOOKUP(A38,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41570</v>
+        <v>1059206</v>
       </c>
       <c r="C38">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
-        <v>33911</v>
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>1994</v>
       </c>
       <c r="E38">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -3275,21 +3760,21 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <f>VLOOKUP(A39,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41539</v>
+        <v>41578</v>
       </c>
       <c r="C39">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="D39">
-        <v>1991</v>
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>34268</v>
       </c>
       <c r="E39">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -3298,21 +3783,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <f>VLOOKUP(A40,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41531</v>
-      </c>
-      <c r="C40">
-        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1">
-        <v>33126</v>
+        <v>34205</v>
       </c>
       <c r="E40">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -3321,21 +3798,21 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <f>VLOOKUP(A41,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41526</v>
+        <v>41570</v>
       </c>
       <c r="C41">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1">
-        <v>32769</v>
+        <v>33911</v>
       </c>
       <c r="E41">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -3344,21 +3821,21 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <f>VLOOKUP(A42,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41518</v>
+        <v>41539</v>
       </c>
       <c r="C42">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="D42" s="1">
-        <v>32293</v>
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>1991</v>
       </c>
       <c r="E42">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -3367,21 +3844,21 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <f>VLOOKUP(A43,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>25964</v>
+        <v>41531</v>
       </c>
       <c r="C43">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>31607</v>
+        <v>33126</v>
       </c>
       <c r="E43">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -3390,21 +3867,21 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <f>VLOOKUP(A44,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>511426</v>
+        <v>41526</v>
       </c>
       <c r="C44">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>31358</v>
+        <v>32769</v>
       </c>
       <c r="E44">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -3413,21 +3890,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <f>VLOOKUP(A45,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>25962</v>
-      </c>
-      <c r="C45">
-        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D45" s="1">
-        <v>31208</v>
+        <v>32545</v>
       </c>
       <c r="E45">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -3436,21 +3905,21 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <f>VLOOKUP(A46,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>25964</v>
+        <v>41518</v>
       </c>
       <c r="C46">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D46" s="1">
-        <v>31015</v>
+        <v>32293</v>
       </c>
       <c r="E46">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -3459,21 +3928,21 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <f>VLOOKUP(A47,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41380</v>
+        <v>25964</v>
       </c>
       <c r="C47">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D47" s="1">
-        <v>30616</v>
+        <v>31607</v>
       </c>
       <c r="E47">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -3482,21 +3951,21 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <f>VLOOKUP(A48,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41378</v>
+        <v>511426</v>
       </c>
       <c r="C48">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1">
-        <v>29808</v>
+        <v>31358</v>
       </c>
       <c r="E48">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -3505,21 +3974,21 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <f>VLOOKUP(A49,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>26064</v>
+        <v>25962</v>
       </c>
       <c r="C49">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>29395</v>
+        <v>31208</v>
       </c>
       <c r="E49">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -3528,113 +3997,113 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <f>VLOOKUP(A50,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>25963</v>
+        <v>25964</v>
       </c>
       <c r="C50">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>29087</v>
+        <v>31015</v>
       </c>
       <c r="E50">
-        <v>1979</v>
+        <v>1984</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>Early Dylan</v>
+        <v>Late Dylan</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <f>VLOOKUP(A51,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41368</v>
+        <v>41380</v>
       </c>
       <c r="C51">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1">
-        <v>28968</v>
+        <v>30616</v>
       </c>
       <c r="E51">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>Early Dylan</v>
+        <v>Late Dylan</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <f>VLOOKUP(A52,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>35120</v>
+        <v>41378</v>
       </c>
       <c r="C52">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1">
-        <v>28656</v>
+        <v>29808</v>
       </c>
       <c r="E52">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>Early Dylan</v>
+        <v>Late Dylan</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <f>VLOOKUP(A53,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>1081920</v>
+        <v>26064</v>
       </c>
       <c r="C53">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53" s="1">
-        <v>28565</v>
+        <v>29395</v>
       </c>
       <c r="E53">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>Early Dylan</v>
+        <v>Late Dylan</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <f>VLOOKUP(A54,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41332</v>
+        <v>25963</v>
       </c>
       <c r="C54">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D54" s="1">
-        <v>28016</v>
+        <v>29087</v>
       </c>
       <c r="E54">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -3643,21 +4112,21 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <f>VLOOKUP(A55,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41324</v>
+        <v>41368</v>
       </c>
       <c r="C55">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1">
-        <v>27764</v>
+        <v>28968</v>
       </c>
       <c r="E55">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -3666,21 +4135,21 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <f>VLOOKUP(A56,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>22806</v>
+        <v>35120</v>
       </c>
       <c r="C56">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="1">
-        <v>27414</v>
+        <v>28656</v>
       </c>
       <c r="E56">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -3689,21 +4158,21 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <f>VLOOKUP(A57,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41305</v>
+        <v>1081920</v>
       </c>
       <c r="C57">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D57" s="1">
-        <v>27046</v>
+        <v>28565</v>
       </c>
       <c r="E57">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -3712,21 +4181,21 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <f>VLOOKUP(A58,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41576</v>
+        <v>41332</v>
       </c>
       <c r="C58">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D58" s="1">
-        <v>26987</v>
+        <v>28016</v>
       </c>
       <c r="E58">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -3735,21 +4204,21 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <f>VLOOKUP(A59,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41298</v>
+        <v>41324</v>
       </c>
       <c r="C59">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1">
-        <v>26858</v>
+        <v>27764</v>
       </c>
       <c r="E59">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -3758,21 +4227,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60">
-        <f>VLOOKUP(A60,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>539529</v>
-      </c>
-      <c r="C60">
-        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D60" s="1">
-        <v>26254</v>
+        <v>27571</v>
       </c>
       <c r="E60">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -3781,21 +4242,21 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <f>VLOOKUP(A61,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41288</v>
+        <v>22806</v>
       </c>
       <c r="C61">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1">
-        <v>25860</v>
+        <v>27414</v>
       </c>
       <c r="E61">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -3804,21 +4265,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <f>VLOOKUP(A62,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41283</v>
-      </c>
-      <c r="C62">
-        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1">
-        <v>25727</v>
+        <v>27200</v>
       </c>
       <c r="E62">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -3827,21 +4280,21 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B63">
         <f>VLOOKUP(A63,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>41270</v>
+        <v>41305</v>
       </c>
       <c r="C63">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1">
-        <v>25302</v>
+        <v>27046</v>
       </c>
       <c r="E63">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -3850,21 +4303,21 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <f>VLOOKUP(A64,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>24337</v>
+        <v>41576</v>
       </c>
       <c r="C64">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1">
-        <v>24833</v>
+        <v>26987</v>
       </c>
       <c r="E64">
-        <v>1967</v>
+        <v>1973</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -3873,21 +4326,21 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <f>VLOOKUP(A65,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>539539</v>
+        <v>41298</v>
       </c>
       <c r="C65">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" s="1">
-        <v>24558</v>
+        <v>26858</v>
       </c>
       <c r="E65">
-        <v>1967</v>
+        <v>1973</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -3896,21 +4349,21 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B66">
         <f>VLOOKUP(A66,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>26024</v>
+        <v>539529</v>
       </c>
       <c r="C66">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1">
-        <v>24278</v>
+        <v>26254</v>
       </c>
       <c r="E66">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -3919,190 +4372,328 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B67">
         <f>VLOOKUP(A67,[1]Sheet1!$A:$C,2,FALSE)</f>
-        <v>13573</v>
+        <v>41288</v>
       </c>
       <c r="C67">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1">
-        <v>23984</v>
+        <v>25860</v>
       </c>
       <c r="E67">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F72" si="1">IF(E67&lt;1980,"Early Dylan","Late Dylan")</f>
+        <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <f>VLOOKUP(A68,[1]Sheet1!$A:$C,2,FALSE)</f>
+        <v>41283</v>
+      </c>
+      <c r="C68">
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D68" s="1">
+        <v>25727</v>
+      </c>
+      <c r="E68">
+        <v>1970</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <f>VLOOKUP(A69,[1]Sheet1!$A:$C,2,FALSE)</f>
+        <v>41270</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D69" s="1">
+        <v>25302</v>
+      </c>
+      <c r="E69">
+        <v>1969</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <f>VLOOKUP(A70,[1]Sheet1!$A:$C,2,FALSE)</f>
+        <v>24337</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="D70" s="1">
+        <v>24833</v>
+      </c>
+      <c r="E70">
+        <v>1967</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <f>VLOOKUP(A71,[1]Sheet1!$A:$C,2,FALSE)</f>
+        <v>539539</v>
+      </c>
+      <c r="C71">
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>24558</v>
+      </c>
+      <c r="E71">
+        <v>1967</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <f>VLOOKUP(A72,[1]Sheet1!$A:$C,2,FALSE)</f>
+        <v>26024</v>
+      </c>
+      <c r="C72">
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D72" s="1">
+        <v>24278</v>
+      </c>
+      <c r="E72">
+        <v>1966</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="0"/>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73">
+        <f>VLOOKUP(A73,[1]Sheet1!$A:$C,2,FALSE)</f>
+        <v>13573</v>
+      </c>
+      <c r="C73">
+        <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>23984</v>
+      </c>
+      <c r="E73">
+        <v>1965</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" ref="F73:F78" si="1">IF(E73&lt;1980,"Early Dylan","Late Dylan")</f>
+        <v>Early Dylan</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74">
+        <f>VLOOKUP(A74,[1]Sheet1!$A:$C,2,FALSE)</f>
         <v>17399</v>
       </c>
-      <c r="C68">
+      <c r="C74">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D74" s="1">
         <v>23823</v>
       </c>
-      <c r="E68">
+      <c r="E74">
         <v>1965</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F74" t="str">
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
-      <c r="B69">
-        <f>VLOOKUP(A69,[1]Sheet1!$A:$C,2,FALSE)</f>
+      <c r="B75">
+        <f>VLOOKUP(A75,[1]Sheet1!$A:$C,2,FALSE)</f>
         <v>25519</v>
       </c>
-      <c r="C69">
+      <c r="C75">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D75" s="1">
         <v>23597</v>
       </c>
-      <c r="E69">
+      <c r="E75">
         <v>1964</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F75" t="str">
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>71</v>
       </c>
-      <c r="B70">
-        <f>VLOOKUP(A70,[1]Sheet1!$A:$C,2,FALSE)</f>
+      <c r="B76">
+        <f>VLOOKUP(A76,[1]Sheet1!$A:$C,2,FALSE)</f>
         <v>28249</v>
       </c>
-      <c r="C70">
+      <c r="C76">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D76" s="1">
         <v>23389</v>
       </c>
-      <c r="E70">
+      <c r="E76">
         <v>1964</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F76" t="str">
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>72</v>
       </c>
-      <c r="B71">
-        <f>VLOOKUP(A71,[1]Sheet1!$A:$C,2,FALSE)</f>
+      <c r="B77">
+        <f>VLOOKUP(A77,[1]Sheet1!$A:$C,2,FALSE)</f>
         <v>17327</v>
       </c>
-      <c r="C71">
+      <c r="C77">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D77" s="1">
         <v>23158</v>
       </c>
-      <c r="E71">
+      <c r="E77">
         <v>1963</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F77" t="str">
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>73</v>
       </c>
-      <c r="B72">
-        <f>VLOOKUP(A72,[1]Sheet1!$A:$C,2,FALSE)</f>
+      <c r="B78">
+        <f>VLOOKUP(A78,[1]Sheet1!$A:$C,2,FALSE)</f>
         <v>26515</v>
       </c>
-      <c r="C72">
+      <c r="C78">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D78" s="1">
         <v>22724</v>
       </c>
-      <c r="E72">
+      <c r="E78">
         <v>1962</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F78" t="str">
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>74</v>
       </c>
-      <c r="B73">
-        <f>VLOOKUP(A73,[1]Sheet1!$A:$C,2,FALSE)</f>
+      <c r="B79">
+        <f>VLOOKUP(A79,[1]Sheet1!$A:$C,2,FALSE)</f>
         <v>1223423</v>
       </c>
-      <c r="C73">
+      <c r="C79">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>75</v>
       </c>
-      <c r="B74">
-        <f>VLOOKUP(A74,[1]Sheet1!$A:$C,2,FALSE)</f>
+      <c r="B80">
+        <f>VLOOKUP(A80,[1]Sheet1!$A:$C,2,FALSE)</f>
         <v>992332</v>
       </c>
-      <c r="C74">
+      <c r="C80">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>76</v>
       </c>
-      <c r="B75">
-        <f>VLOOKUP(A75,[1]Sheet1!$A:$C,2,FALSE)</f>
+      <c r="B81">
+        <f>VLOOKUP(A81,[1]Sheet1!$A:$C,2,FALSE)</f>
         <v>994766</v>
       </c>
-      <c r="C75">
+      <c r="C81">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>77</v>
       </c>
-      <c r="B76">
-        <f>VLOOKUP(A76,[1]Sheet1!$A:$C,2,FALSE)</f>
+      <c r="B82">
+        <f>VLOOKUP(A82,[1]Sheet1!$A:$C,2,FALSE)</f>
         <v>1108900</v>
       </c>
-      <c r="C76">
+      <c r="C82">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>1</v>
       </c>
@@ -4117,7 +4708,7 @@
   <dimension ref="C1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4213,6 +4804,9 @@
       </c>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
       <c r="P9">
         <v>2019</v>
       </c>
@@ -4276,6 +4870,9 @@
       </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
       <c r="P16">
         <v>2015</v>
       </c>
@@ -4794,20 +5391,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF024E5E-2B60-4CCD-9AEA-0C47E1324E06}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="5">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5F1180-7C84-4933-920D-C045A2DDB9BC}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4821,7 +5476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4834,10 +5489,10 @@
         <v>Late Dylan</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4849,8 +5504,15 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(D2:D43,"live")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4862,11 +5524,24 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(D2:D43,"comp")</f>
+        <v>26</v>
+      </c>
       <c r="J4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4878,15 +5553,28 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5">
+        <f>SUM(G3:G4)</f>
+        <v>42</v>
+      </c>
       <c r="I5" t="s">
         <v>81</v>
       </c>
       <c r="J5">
-        <f>COUNTIF(C2:C44,"Early Dylan")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <f>COUNTIF(C2:C43,"Early Dylan")</f>
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4898,15 +5586,24 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
       <c r="I6" t="s">
         <v>80</v>
       </c>
       <c r="J6">
-        <f>COUNTIF(C2:C45,"Late Dylan")</f>
+        <f>COUNTIF(C2:C44,"Late Dylan")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4918,12 +5615,23 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
       <c r="J7">
         <f>SUM(J5:J6)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K5:K6)</f>
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <f>SUM(L5:L6)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4935,8 +5643,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4948,8 +5659,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4961,8 +5675,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4974,8 +5691,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4987,8 +5707,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5000,8 +5723,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5013,8 +5739,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5026,8 +5755,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -5039,8 +5771,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5052,8 +5787,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -5065,8 +5803,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -5078,8 +5819,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -5091,8 +5835,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -5104,8 +5851,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5117,8 +5867,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5130,8 +5883,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5143,8 +5899,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -5156,8 +5915,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5169,8 +5931,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5182,8 +5947,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -5195,8 +5963,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -5208,8 +5979,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -5221,8 +5995,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5234,8 +6011,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -5247,8 +6027,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -5260,8 +6043,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -5273,8 +6059,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -5286,8 +6075,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -5299,8 +6091,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -5312,8 +6107,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -5325,8 +6123,11 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -5338,34 +6139,41 @@
         <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
-        <v>1964</v>
-      </c>
-      <c r="C40" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
-        <v>Early Dylan</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1966</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41">
-        <v>1966</v>
+        <v>1997</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42">
         <v>1997</v>
@@ -5373,27 +6181,22 @@
       <c r="C42" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43">
-        <v>1997</v>
+        <v>1975</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44">
-        <v>1975</v>
-      </c>
-      <c r="C44" t="s">
         <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/albumdata.xlsx
+++ b/data/albumdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammo\OneDrive\Desktop\digit494\bobdylan494\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DF9B0F-6311-4075-9899-71B423A7BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8370F-78DB-4E2B-BC6F-C22A0C36410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEEBB7A0-F159-473C-BB2C-0727624CED14}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId6"/>
+    <pivotCache cacheId="77" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -388,7 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2468,7 +2467,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9FAE770-6282-4CD1-BB9D-4676A45A238F}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9FAE770-6282-4CD1-BB9D-4676A45A238F}" name="PivotTable2" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -5394,7 +5393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF024E5E-2B60-4CCD-9AEA-0C47E1324E06}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5422,7 +5423,7 @@
       <c r="A4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>21</v>
       </c>
     </row>
@@ -5430,7 +5431,7 @@
       <c r="A5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>13</v>
       </c>
     </row>
@@ -5438,7 +5439,7 @@
       <c r="A6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>34</v>
       </c>
     </row>

--- a/data/albumdata.xlsx
+++ b/data/albumdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammo\OneDrive\Desktop\digit494\bobdylan494\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8370F-78DB-4E2B-BC6F-C22A0C36410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605D4C0-88E1-470C-9708-748F0CEA33C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEEBB7A0-F159-473C-BB2C-0727624CED14}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="77" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="101">
   <si>
     <t>AlbumName</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Count of AlbumType</t>
+  </si>
+  <si>
+    <t>og</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2470,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9FAE770-6282-4CD1-BB9D-4676A45A238F}" name="PivotTable2" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9FAE770-6282-4CD1-BB9D-4676A45A238F}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -2888,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76129176-828D-47B7-819F-0A41AB8CCC8C}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2902,7 +2905,7 @@
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2921,8 +2924,11 @@
       <c r="F1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +2950,12 @@
         <f>IF(E2&lt;1980,"Early Dylan","Late Dylan")</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2967,8 +2977,12 @@
         <f t="shared" ref="F3:F72" si="0">IF(E3&lt;1980,"Early Dylan","Late Dylan")</f>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2990,8 +3004,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3013,8 +3031,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3036,8 +3058,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3085,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3082,8 +3112,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3105,8 +3138,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3128,8 +3165,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3151,8 +3192,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3174,8 +3219,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3197,8 +3246,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3220,8 +3273,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3243,8 +3300,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3266,8 +3327,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -3281,8 +3346,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3304,8 +3372,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3327,8 +3399,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3350,8 +3425,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3373,8 +3452,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3396,8 +3479,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3419,8 +3506,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3442,8 +3532,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3465,8 +3559,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3488,8 +3585,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3511,8 +3612,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3534,8 +3639,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3557,8 +3666,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3580,8 +3693,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3603,8 +3720,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3626,8 +3747,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -3641,8 +3765,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3664,8 +3791,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3687,8 +3818,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3710,8 +3844,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3733,8 +3871,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3756,8 +3898,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3779,8 +3925,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -3794,8 +3943,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3817,8 +3969,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3840,8 +3995,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3863,8 +4022,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3886,8 +4048,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3901,8 +4066,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4092,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -3947,8 +4118,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -3970,8 +4144,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -3993,8 +4171,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -4016,8 +4197,12 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -4039,8 +4224,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4062,8 +4250,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -4085,8 +4276,11 @@
         <f t="shared" si="0"/>
         <v>Late Dylan</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4108,8 +4302,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -4131,8 +4328,12 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4154,8 +4355,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -4177,8 +4381,12 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -4200,8 +4408,12 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -4223,8 +4435,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -4238,8 +4453,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -4261,8 +4479,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -4276,8 +4497,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -4299,8 +4523,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -4322,8 +4549,12 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -4345,8 +4576,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -4368,8 +4602,12 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -4391,8 +4629,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -4414,8 +4655,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -4437,8 +4681,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -4460,8 +4707,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4733,12 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f>VLOOKUP(A:A,'live-comp albums'!A:D,4,FALSE)</f>
+        <v>comp</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -4506,8 +4760,11 @@
         <f t="shared" si="0"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -4526,11 +4783,14 @@
         <v>1965</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ref="F73:F78" si="1">IF(E73&lt;1980,"Early Dylan","Late Dylan")</f>
+        <f t="shared" ref="F73:F82" si="1">IF(E73&lt;1980,"Early Dylan","Late Dylan")</f>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -4552,8 +4812,11 @@
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -4575,8 +4838,11 @@
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -4598,8 +4864,11 @@
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -4621,8 +4890,11 @@
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -4644,8 +4916,11 @@
         <f t="shared" si="1"/>
         <v>Early Dylan</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -4657,8 +4932,19 @@
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D79" s="1"/>
+      <c r="E79">
+        <v>2022</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>Late Dylan</v>
+      </c>
+      <c r="G79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -4670,8 +4956,18 @@
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>1996</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>Late Dylan</v>
+      </c>
+      <c r="G80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -4683,8 +4979,18 @@
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>1996</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>Late Dylan</v>
+      </c>
+      <c r="G81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -4695,6 +5001,16 @@
       <c r="C82">
         <f>VLOOKUP(A:A,[1]Sheet1!$A:$C,3,FALSE)</f>
         <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1997</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>Late Dylan</v>
+      </c>
+      <c r="G82" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/albumdata.xlsx
+++ b/data/albumdata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammo\OneDrive\Desktop\digit494\bobdylan494\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605D4C0-88E1-470C-9708-748F0CEA33C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465B9A24-97FD-4BE9-B59E-FECD8142E93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEEBB7A0-F159-473C-BB2C-0727624CED14}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="allalbums" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="live-comp albums" sheetId="3" r:id="rId4"/>
@@ -23,7 +23,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2470,7 +2470,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9FAE770-6282-4CD1-BB9D-4676A45A238F}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E9FAE770-6282-4CD1-BB9D-4676A45A238F}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -2893,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76129176-828D-47B7-819F-0A41AB8CCC8C}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
@@ -5798,11 +5798,11 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2023</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D2" t="s">
@@ -5814,11 +5814,11 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2023</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D3" t="s">
@@ -5834,11 +5834,11 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2021</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D4" t="s">
@@ -5863,11 +5863,11 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2021</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D5" t="s">
@@ -5896,11 +5896,11 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2021</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D6" t="s">
@@ -5925,11 +5925,11 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2020</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D7" t="s">
@@ -5953,11 +5953,11 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2019</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D8" t="s">
@@ -5969,11 +5969,11 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2019</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D9" t="s">
@@ -5985,11 +5985,11 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2018</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D10" t="s">
@@ -6001,11 +6001,11 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2017</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D11" t="s">
@@ -6017,11 +6017,11 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2017</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D12" t="s">
@@ -6033,11 +6033,11 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2016</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D13" t="s">
@@ -6049,11 +6049,11 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2015</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D14" t="s">
@@ -6065,11 +6065,11 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2015</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D15" t="s">
@@ -6081,11 +6081,11 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2013</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D16" t="s">
@@ -6097,11 +6097,11 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2011</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D17" t="s">
@@ -6113,11 +6113,11 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2010</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D18" t="s">
@@ -6129,11 +6129,11 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2009</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D19" t="s">
@@ -6145,11 +6145,11 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2008</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D20" t="s">
@@ -6161,11 +6161,11 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2005</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D21" t="s">
@@ -6177,11 +6177,11 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2005</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D22" t="s">
@@ -6193,11 +6193,11 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2005</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D23" t="s">
@@ -6209,11 +6209,11 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2004</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D24" t="s">
@@ -6225,11 +6225,11 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2002</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D25" t="s">
@@ -6241,11 +6241,11 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>2002</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D26" t="s">
@@ -6257,11 +6257,11 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1998</v>
       </c>
       <c r="C27" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D27" t="s">
@@ -6273,11 +6273,11 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1995</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D28" t="s">
@@ -6289,11 +6289,11 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1994</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D29" t="s">
@@ -6305,11 +6305,11 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1994</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D30" t="s">
@@ -6321,11 +6321,11 @@
         <v>40</v>
       </c>
       <c r="B31">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1991</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D31" t="s">
@@ -6337,11 +6337,11 @@
         <v>45</v>
       </c>
       <c r="B32">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1985</v>
       </c>
       <c r="C32" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D32" t="s">
@@ -6353,11 +6353,11 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1984</v>
       </c>
       <c r="C33" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Late Dylan</v>
       </c>
       <c r="D33" t="s">
@@ -6369,11 +6369,11 @@
         <v>52</v>
       </c>
       <c r="B34">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1979</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
       <c r="D34" t="s">
@@ -6385,11 +6385,11 @@
         <v>54</v>
       </c>
       <c r="B35">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1978</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
       <c r="D35" t="s">
@@ -6401,11 +6401,11 @@
         <v>55</v>
       </c>
       <c r="B36">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1976</v>
       </c>
       <c r="C36" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
       <c r="D36" t="s">
@@ -6417,11 +6417,11 @@
         <v>59</v>
       </c>
       <c r="B37">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1973</v>
       </c>
       <c r="C37" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
       <c r="D37" t="s">
@@ -6433,11 +6433,11 @@
         <v>61</v>
       </c>
       <c r="B38">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1971</v>
       </c>
       <c r="C38" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
       <c r="D38" t="s">
@@ -6449,11 +6449,11 @@
         <v>66</v>
       </c>
       <c r="B39">
-        <f>VLOOKUP(A:A,Sheet1!A:F,5,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,5,FALSE)</f>
         <v>1967</v>
       </c>
       <c r="C39" t="str">
-        <f>VLOOKUP(A:A,Sheet1!A:F,6,FALSE)</f>
+        <f>VLOOKUP(A:A,allalbums!A:F,6,FALSE)</f>
         <v>Early Dylan</v>
       </c>
       <c r="D39" t="s">
